--- a/src/main/resources/相关文档/表结构.xlsx
+++ b/src/main/resources/相关文档/表结构.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="540" windowWidth="19200" windowHeight="11640" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="用户表user" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="密码修改记录表pwd_rec" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="49">
   <si>
     <t>序号</t>
   </si>
@@ -158,13 +158,23 @@
   </si>
   <si>
     <t>版本号(每次更新表都会加1)</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>版本号(每次更新,+1)</t>
+  </si>
+  <si>
+    <t>自增id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -192,6 +202,13 @@
       <color theme="1"/>
       <name val="Verdana"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -243,18 +260,24 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -262,6 +285,85 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+    <mruColors>
+      <color rgb="FFFFFFFF"/>
+    </mruColors>
+  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -273,7 +375,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="C7EDCC"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -308,7 +410,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -340,9 +442,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -374,6 +477,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -549,22 +653,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="38.125" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="38.125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -596,26 +703,26 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="22.5">
-      <c r="A2" s="2">
+    <row r="2" spans="1:9">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="2">
-        <v>10</v>
-      </c>
-      <c r="E2" s="2">
-        <v>0</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="2" t="s">
+      <c r="C2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="3">
+        <v>10</v>
+      </c>
+      <c r="E2" s="3">
+        <v>0</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>12</v>
       </c>
       <c r="H2" s="3"/>
@@ -623,226 +730,226 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="22.5">
-      <c r="A3" s="2">
+    <row r="3" spans="1:9">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="2">
-        <v>10</v>
-      </c>
-      <c r="E3" s="2">
-        <v>0</v>
-      </c>
-      <c r="F3" s="2" t="s">
+      <c r="C3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="3">
+        <v>10</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="2"/>
+      <c r="G3" s="3"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="22.5">
-      <c r="A4" s="2">
+    <row r="4" spans="1:9">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="3">
         <v>32</v>
       </c>
-      <c r="E4" s="2">
-        <v>0</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="2"/>
+      <c r="E4" s="3">
+        <v>0</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="33.75">
-      <c r="A5" s="2">
+    <row r="5" spans="1:9">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="2">
-        <v>10</v>
-      </c>
-      <c r="E5" s="2">
-        <v>0</v>
-      </c>
-      <c r="F5" s="2" t="s">
+      <c r="D5" s="3">
+        <v>10</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="2"/>
+      <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="2">
+      <c r="A6" s="3">
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="2">
-        <v>10</v>
-      </c>
-      <c r="E6" s="2">
-        <v>0</v>
-      </c>
-      <c r="F6" s="2" t="s">
+      <c r="D6" s="3">
+        <v>10</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="2"/>
+      <c r="G6" s="3"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="22.5">
-      <c r="A7" s="2">
+    <row r="7" spans="1:9">
+      <c r="A7" s="3">
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="3">
         <v>255</v>
       </c>
-      <c r="E7" s="2">
-        <v>0</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="2"/>
+      <c r="E7" s="3">
+        <v>0</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="22.5">
-      <c r="A8" s="2">
+    <row r="8" spans="1:9">
+      <c r="A8" s="3">
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="2">
-        <v>10</v>
-      </c>
-      <c r="E8" s="2">
-        <v>0</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" s="2"/>
+      <c r="D8" s="3">
+        <v>10</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="3"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="22.5">
-      <c r="A9" s="2">
+    <row r="9" spans="1:9">
+      <c r="A9" s="3">
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="3">
         <v>23</v>
       </c>
-      <c r="E9" s="2">
-        <v>0</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" s="2"/>
+      <c r="E9" s="3">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="3"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="22.5">
-      <c r="A10" s="2">
+    <row r="10" spans="1:9">
+      <c r="A10" s="3">
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="3">
         <v>23</v>
       </c>
-      <c r="E10" s="2">
-        <v>0</v>
-      </c>
-      <c r="F10" s="2" t="s">
+      <c r="E10" s="3">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="2"/>
+      <c r="G10" s="3"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="45">
-      <c r="A11" s="2">
+    <row r="11" spans="1:9">
+      <c r="A11" s="3">
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="2">
-        <v>10</v>
-      </c>
-      <c r="E11" s="2">
-        <v>0</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" s="2"/>
+      <c r="D11" s="3">
+        <v>10</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="3"/>
       <c r="H11" s="3">
         <v>0</v>
       </c>
@@ -850,126 +957,126 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="22.5">
-      <c r="A12" s="2">
+    <row r="12" spans="1:9">
+      <c r="A12" s="3">
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="3">
         <v>23</v>
       </c>
-      <c r="E12" s="2">
-        <v>0</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" s="2"/>
+      <c r="E12" s="3">
+        <v>0</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="22.5">
-      <c r="A13" s="2">
+    <row r="13" spans="1:9">
+      <c r="A13" s="3">
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="2">
-        <v>10</v>
-      </c>
-      <c r="E13" s="2">
-        <v>0</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" s="2"/>
+      <c r="C13" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="3">
+        <v>10</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="22.5">
-      <c r="A14" s="2">
+    <row r="14" spans="1:9">
+      <c r="A14" s="3">
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="3">
         <v>23</v>
       </c>
-      <c r="E14" s="2">
-        <v>0</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" s="2"/>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="22.5">
-      <c r="A15" s="2">
+    <row r="15" spans="1:9">
+      <c r="A15" s="3">
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" s="2">
-        <v>10</v>
-      </c>
-      <c r="E15" s="2">
-        <v>0</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" s="2"/>
+      <c r="C15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="3">
+        <v>10</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" s="3"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="33.75">
-      <c r="A16" s="2">
+    <row r="16" spans="1:9">
+      <c r="A16" s="3">
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="2">
-        <v>10</v>
-      </c>
-      <c r="E16" s="2">
-        <v>0</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" s="2"/>
+      <c r="D16" s="3">
+        <v>10</v>
+      </c>
+      <c r="E16" s="3">
+        <v>0</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="3"/>
       <c r="H16" s="3">
         <v>0</v>
       </c>
@@ -985,13 +1092,329 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="4.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="4">
+        <v>10</v>
+      </c>
+      <c r="E2" s="4">
+        <v>0</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="4">
+        <v>10</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="4">
+        <v>32</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="4">
+        <v>23</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4">
+        <v>10</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="4">
+        <v>23</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="4">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="4">
+        <v>10</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="4">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="4">
+        <v>10</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
@@ -999,7 +1422,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
